--- a/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-group.xlsx
+++ b/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-group.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:41:46+00:00</t>
+    <t>2024-02-15T15:15:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-group.xlsx
+++ b/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-group.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T15:15:21+00:00</t>
+    <t>2024-02-15T16:03:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-group.xlsx
+++ b/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-group.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:03:04+00:00</t>
+    <t>2024-02-15T16:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
